--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11 新特性|Fix Bug'!$A$1:$W$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11 新特性|Fix Bug'!$A$1:$W$15</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -251,14 +251,6 @@
   </si>
   <si>
     <t>不紧急</t>
-  </si>
-  <si>
-    <t>partnerPC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerPC，partnerApp，papp，renter，renterPC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
@@ -281,13 +273,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>房东申请月付增加拓展专员和拓展经理提醒</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>JRYF-411</t>
-  </si>
-  <si>
     <t>DV-2650</t>
   </si>
   <si>
@@ -301,10 +286,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>张海涛</t>
+    <t>发送给资方的申请资料中压缩图片</t>
+  </si>
+  <si>
+    <t>DV-2715</t>
+  </si>
+  <si>
+    <t>茅寰寰</t>
     <rPh sb="0" eb="1">
       <t>chuan'z</t>
     </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>月付滞纳金计算方式修改</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>田志敏</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -332,20 +334,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -382,24 +387,28 @@
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -436,6 +445,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -460,16 +470,19 @@
       <sz val="10.5"/>
       <color rgb="FF3B73AF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1492,19 +1505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X166"/>
+  <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="48" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="47" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
     <col min="8" max="8" width="13" style="48" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
@@ -1594,7 +1607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1605,32 +1618,30 @@
         <v>71</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>74</v>
-      </c>
       <c r="H2" s="54">
-        <v>42788</v>
+        <v>42795</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J2" s="54">
-        <v>42788</v>
+        <v>42795</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="62" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N2" s="53" t="s">
         <v>70</v>
@@ -1639,8 +1650,8 @@
       <c r="P2" s="62"/>
       <c r="Q2" s="80"/>
       <c r="R2" s="83"/>
-      <c r="S2" s="78" t="s">
-        <v>78</v>
+      <c r="S2" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="T2" s="81"/>
       <c r="U2" s="59"/>
@@ -1648,7 +1659,7 @@
       <c r="W2" s="68"/>
       <c r="X2" s="67"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="33">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1659,32 +1670,30 @@
         <v>71</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="53" t="s">
-        <v>73</v>
-      </c>
+      <c r="F3" s="53"/>
       <c r="G3" s="53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" s="54">
-        <v>42788</v>
+        <v>42797</v>
       </c>
       <c r="I3" s="53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="54">
-        <v>42788</v>
+        <v>42797</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3" s="53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N3" s="53" t="s">
         <v>70</v>
@@ -1693,8 +1702,8 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="80"/>
       <c r="R3" s="83"/>
-      <c r="S3" s="78" t="s">
-        <v>77</v>
+      <c r="S3" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="T3" s="76"/>
       <c r="U3" s="59"/>
@@ -1702,33 +1711,57 @@
       <c r="W3" s="68"/>
       <c r="X3" s="67"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="53"/>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="G4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="54">
+        <v>42797</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="54">
+        <v>42797</v>
+      </c>
       <c r="K4" s="53"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="O4" s="53"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="80"/>
       <c r="R4" s="83"/>
       <c r="S4" s="85"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="59"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="69"/>
       <c r="V4" s="65"/>
       <c r="W4" s="68"/>
       <c r="X4" s="67"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1747,9 +1780,9 @@
       <c r="P5" s="62"/>
       <c r="Q5" s="80"/>
       <c r="R5" s="83"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="69"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="59"/>
       <c r="V5" s="65"/>
       <c r="W5" s="68"/>
       <c r="X5" s="67"/>
@@ -1758,7 +1791,7 @@
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="75"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
@@ -1773,7 +1806,7 @@
       <c r="P6" s="62"/>
       <c r="Q6" s="80"/>
       <c r="R6" s="83"/>
-      <c r="S6" s="86"/>
+      <c r="S6" s="87"/>
       <c r="T6" s="76"/>
       <c r="U6" s="59"/>
       <c r="V6" s="65"/>
@@ -1810,7 +1843,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -1825,7 +1858,7 @@
       <c r="P8" s="62"/>
       <c r="Q8" s="80"/>
       <c r="R8" s="83"/>
-      <c r="S8" s="87"/>
+      <c r="S8" s="84"/>
       <c r="T8" s="76"/>
       <c r="U8" s="59"/>
       <c r="V8" s="65"/>
@@ -1851,14 +1884,14 @@
       <c r="P9" s="62"/>
       <c r="Q9" s="80"/>
       <c r="R9" s="83"/>
-      <c r="S9" s="84"/>
+      <c r="S9" s="88"/>
       <c r="T9" s="76"/>
       <c r="U9" s="59"/>
       <c r="V9" s="65"/>
       <c r="W9" s="68"/>
       <c r="X9" s="67"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="18">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1877,14 +1910,14 @@
       <c r="P10" s="62"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="83"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="76"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="79"/>
       <c r="U10" s="59"/>
-      <c r="V10" s="65"/>
+      <c r="V10" s="59"/>
       <c r="W10" s="68"/>
       <c r="X10" s="67"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="18">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1903,8 +1936,8 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="80"/>
       <c r="R11" s="83"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="79"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="76"/>
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
       <c r="W11" s="68"/>
@@ -1926,17 +1959,17 @@
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="76"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="59"/>
       <c r="U12" s="59"/>
       <c r="V12" s="59"/>
-      <c r="W12" s="68"/>
+      <c r="W12" s="70"/>
       <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1947,20 +1980,19 @@
       <c r="H13" s="54"/>
       <c r="I13" s="53"/>
       <c r="J13" s="54"/>
-      <c r="K13" s="53"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="62"/>
       <c r="M13" s="53"/>
       <c r="N13" s="53"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="63"/>
+      <c r="P13" s="62"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="63"/>
+      <c r="R13" s="62"/>
       <c r="S13" s="78"/>
       <c r="T13" s="59"/>
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="67"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="51"/>
@@ -1971,17 +2003,17 @@
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
       <c r="H14" s="54"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="54"/>
       <c r="K14" s="64"/>
       <c r="L14" s="62"/>
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="62"/>
+      <c r="P14" s="59"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="62"/>
-      <c r="S14" s="78"/>
+      <c r="S14" s="59"/>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
@@ -2003,7 +2035,7 @@
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="59"/>
+      <c r="P15" s="65"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="62"/>
       <c r="S15" s="59"/>
@@ -2016,26 +2048,26 @@
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="53"/>
       <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="54"/>
-      <c r="K16" s="64"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="62"/>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="65"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="62"/>
       <c r="S16" s="59"/>
       <c r="T16" s="59"/>
       <c r="U16" s="59"/>
       <c r="V16" s="59"/>
-      <c r="W16" s="60"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="51"/>
@@ -2106,11 +2138,11 @@
       <c r="P19" s="62"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="62"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="68"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="72"/>
     </row>
     <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="51"/>
@@ -2131,10 +2163,10 @@
       <c r="P20" s="62"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="62"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
       <c r="W20" s="72"/>
     </row>
     <row r="21" spans="1:23" ht="16.5">
@@ -2149,7 +2181,7 @@
       <c r="I21" s="53"/>
       <c r="J21" s="54"/>
       <c r="K21" s="53"/>
-      <c r="L21" s="62"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
       <c r="O21" s="62"/>
@@ -2159,7 +2191,7 @@
       <c r="S21" s="73"/>
       <c r="T21" s="73"/>
       <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
+      <c r="V21" s="74"/>
       <c r="W21" s="72"/>
     </row>
     <row r="22" spans="1:23" ht="16.5">
@@ -2184,7 +2216,7 @@
       <c r="S22" s="73"/>
       <c r="T22" s="73"/>
       <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
+      <c r="V22" s="73"/>
       <c r="W22" s="72"/>
     </row>
     <row r="23" spans="1:23" ht="16.5">
@@ -2199,7 +2231,7 @@
       <c r="I23" s="53"/>
       <c r="J23" s="54"/>
       <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="53"/>
       <c r="N23" s="53"/>
       <c r="O23" s="62"/>
@@ -2231,11 +2263,11 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="72"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="62"/>
     </row>
     <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="51"/>
@@ -2256,11 +2288,11 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="54"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="62"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="68"/>
     </row>
     <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="51"/>
@@ -2323,7 +2355,7 @@
       <c r="H28" s="54"/>
       <c r="I28" s="53"/>
       <c r="J28" s="54"/>
-      <c r="K28" s="53"/>
+      <c r="K28" s="57"/>
       <c r="L28" s="62"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53"/>
@@ -2331,36 +2363,36 @@
       <c r="P28" s="62"/>
       <c r="Q28" s="54"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="68"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="72"/>
     </row>
     <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="53"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="53"/>
       <c r="H29" s="54"/>
       <c r="I29" s="53"/>
       <c r="J29" s="54"/>
-      <c r="K29" s="57"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="62"/>
       <c r="M29" s="53"/>
       <c r="N29" s="53"/>
-      <c r="O29" s="62"/>
+      <c r="O29" s="53"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="54"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="72"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="66"/>
     </row>
     <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="51"/>
@@ -2385,7 +2417,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
-      <c r="W30" s="66"/>
+      <c r="W30" s="68"/>
     </row>
     <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="51"/>
@@ -2616,25 +2648,25 @@
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
       <c r="H40" s="54"/>
-      <c r="I40" s="53"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="54"/>
       <c r="K40" s="53"/>
       <c r="L40" s="62"/>
-      <c r="M40" s="53"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="54"/>
       <c r="R40" s="62"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
       <c r="W40" s="68"/>
     </row>
     <row r="41" spans="1:23" ht="16.5">
@@ -2666,14 +2698,14 @@
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
-      <c r="D42" s="55"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
       <c r="H42" s="54"/>
       <c r="I42" s="54"/>
       <c r="J42" s="54"/>
-      <c r="K42" s="53"/>
+      <c r="K42" s="64"/>
       <c r="L42" s="62"/>
       <c r="M42" s="62"/>
       <c r="N42" s="53"/>
@@ -2681,11 +2713,11 @@
       <c r="P42" s="62"/>
       <c r="Q42" s="54"/>
       <c r="R42" s="62"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="68"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="60"/>
     </row>
     <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
@@ -2838,24 +2870,24 @@
       <c r="W48" s="60"/>
     </row>
     <row r="49" spans="1:23" ht="16.5">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="53"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="53"/>
       <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="64"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="62"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="60"/>
       <c r="S49" s="59"/>
       <c r="T49" s="59"/>
       <c r="U49" s="59"/>
@@ -3244,7 +3276,7 @@
       <c r="D65" s="60"/>
       <c r="E65" s="59"/>
       <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="61"/>
       <c r="I65" s="59"/>
       <c r="J65" s="61"/>
@@ -3393,7 +3425,7 @@
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
       <c r="E71" s="59"/>
-      <c r="F71" s="53"/>
+      <c r="F71" s="59"/>
       <c r="G71" s="59"/>
       <c r="H71" s="61"/>
       <c r="I71" s="59"/>
@@ -3487,7 +3519,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="60"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -3501,7 +3533,7 @@
       <c r="K75" s="64"/>
       <c r="L75" s="59"/>
       <c r="M75" s="59"/>
-      <c r="N75" s="53"/>
+      <c r="N75" s="59"/>
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
       <c r="Q75" s="61"/>
@@ -4906,10 +4938,6 @@
       <c r="P131" s="59"/>
       <c r="Q131" s="61"/>
       <c r="R131" s="60"/>
-      <c r="S131" s="59"/>
-      <c r="T131" s="59"/>
-      <c r="U131" s="59"/>
-      <c r="V131" s="59"/>
       <c r="W131" s="60"/>
     </row>
     <row r="132" spans="1:23">
@@ -5626,31 +5654,10 @@
       <c r="R165" s="60"/>
       <c r="W165" s="60"/>
     </row>
-    <row r="166" spans="1:23">
-      <c r="A166" s="59"/>
-      <c r="B166" s="59"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="60"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="61"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="61"/>
-      <c r="K166" s="64"/>
-      <c r="L166" s="59"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="59"/>
-      <c r="O166" s="59"/>
-      <c r="P166" s="59"/>
-      <c r="Q166" s="61"/>
-      <c r="R166" s="60"/>
-      <c r="W166" s="60"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N74">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5665,7 +5672,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5676,8 +5683,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="S3" r:id="rId1" display="http://192.168.60.204/browse/JRYF-411"/>
-    <hyperlink ref="S2" r:id="rId2" display="http://192.168.60.204/browse/DV-2650"/>
+    <hyperlink ref="S2" r:id="rId1" display="http://192.168.60.204/browse/DV-2650"/>
+    <hyperlink ref="S3" r:id="rId2" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-2715"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -299,22 +299,44 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东信用额度计算慢sql优化</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-951</t>
+  </si>
+  <si>
     <t>月付滞纳金计算方式修改</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>架构组</t>
-  </si>
-  <si>
-    <t>田志敏</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <t>JRYF-405</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -469,12 +491,6 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF3B73AF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -771,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,7 +1025,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,12 +1041,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,7 +1518,7 @@
   <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1722,7 +1732,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>69</v>
@@ -1742,10 +1752,10 @@
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N4" s="53" t="s">
         <v>70</v>
@@ -1754,7 +1764,9 @@
       <c r="P4" s="62"/>
       <c r="Q4" s="80"/>
       <c r="R4" s="83"/>
-      <c r="S4" s="85"/>
+      <c r="S4" s="59" t="s">
+        <v>88</v>
+      </c>
       <c r="T4" s="77"/>
       <c r="U4" s="69"/>
       <c r="V4" s="65"/>
@@ -1762,25 +1774,51 @@
       <c r="X4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="53"/>
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="G5" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="54">
+        <v>42797</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="54">
+        <v>42797</v>
+      </c>
       <c r="K5" s="53"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="L5" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="O5" s="53"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="80"/>
       <c r="R5" s="83"/>
-      <c r="S5" s="86"/>
+      <c r="S5" s="59" t="s">
+        <v>86</v>
+      </c>
       <c r="T5" s="76"/>
       <c r="U5" s="59"/>
       <c r="V5" s="65"/>
@@ -1806,7 +1844,7 @@
       <c r="P6" s="62"/>
       <c r="Q6" s="80"/>
       <c r="R6" s="83"/>
-      <c r="S6" s="87"/>
+      <c r="S6" s="85"/>
       <c r="T6" s="76"/>
       <c r="U6" s="59"/>
       <c r="V6" s="65"/>
@@ -1832,7 +1870,7 @@
       <c r="P7" s="62"/>
       <c r="Q7" s="80"/>
       <c r="R7" s="83"/>
-      <c r="S7" s="87"/>
+      <c r="S7" s="85"/>
       <c r="T7" s="76"/>
       <c r="U7" s="59"/>
       <c r="V7" s="65"/>
@@ -1884,7 +1922,7 @@
       <c r="P9" s="62"/>
       <c r="Q9" s="80"/>
       <c r="R9" s="83"/>
-      <c r="S9" s="88"/>
+      <c r="S9" s="86"/>
       <c r="T9" s="76"/>
       <c r="U9" s="59"/>
       <c r="V9" s="65"/>
@@ -1936,7 +1974,7 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="80"/>
       <c r="R11" s="83"/>
-      <c r="S11" s="88"/>
+      <c r="S11" s="86"/>
       <c r="T11" s="76"/>
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
@@ -5672,7 +5710,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5685,9 +5723,10 @@
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="http://192.168.60.204/browse/DV-2650"/>
     <hyperlink ref="S3" r:id="rId2" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-2715"/>
+    <hyperlink ref="S5" r:id="rId3" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/TOPT-951"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5863,19 +5902,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5913,8 +5952,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5926,8 +5965,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5939,8 +5978,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5952,8 +5991,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5965,8 +6004,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5978,8 +6017,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5991,8 +6030,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6004,8 +6043,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6066,36 +6105,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6380,36 +6419,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6694,36 +6733,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7010,36 +7049,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -330,6 +330,13 @@
   </si>
   <si>
     <t>JRYF-405</t>
+  </si>
+  <si>
+    <t>JRYF-414</t>
+  </si>
+  <si>
+    <t>放款时只更新放款人不更新确认收款人</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1518,7 +1525,7 @@
   <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1826,25 +1833,51 @@
       <c r="X5" s="67"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="G6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="54">
+        <v>42800</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="54">
+        <v>42800</v>
+      </c>
       <c r="K6" s="53"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="L6" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="O6" s="53"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="80"/>
       <c r="R6" s="83"/>
-      <c r="S6" s="85"/>
+      <c r="S6" s="59" t="s">
+        <v>89</v>
+      </c>
       <c r="T6" s="76"/>
       <c r="U6" s="59"/>
       <c r="V6" s="65"/>
@@ -5710,7 +5743,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5724,9 +5757,10 @@
     <hyperlink ref="S2" r:id="rId1" display="http://192.168.60.204/browse/DV-2650"/>
     <hyperlink ref="S3" r:id="rId2" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-2715"/>
     <hyperlink ref="S5" r:id="rId3" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/TOPT-951"/>
+    <hyperlink ref="S6" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-414"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -326,6 +326,14 @@
   </si>
   <si>
     <t>bs、tasktracker</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化支付宝服务窗的立即支付功能</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed-fe</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1510,7 +1518,7 @@
   <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1920,19 +1928,33 @@
       <c r="X6" s="72"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="G7" s="53"/>
       <c r="H7" s="54"/>
       <c r="I7" s="53"/>
       <c r="J7" s="54"/>
       <c r="K7" s="53"/>
       <c r="L7" s="63"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>29</v>
+      </c>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
       <c r="P7" s="63"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_极光组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -300,7 +300,7 @@
   </si>
   <si>
     <t>王云飞</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
@@ -310,38 +310,45 @@
   </si>
   <si>
     <t>纪维玉</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>renterembed</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>bs、payapi</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>房东PC  房东APP  papp</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>bs、tasktracker</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed-fe</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>优化支付宝服务窗的立即支付功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterembed-fe</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-420</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -451,12 +458,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF3B73AF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -763,36 +764,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,16 +1022,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
@@ -1518,7 +1516,7 @@
   <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1938,29 +1936,51 @@
         <v>24</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="54">
+        <v>42802</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="54">
+        <v>42802</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="63"/>
       <c r="M7" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="76"/>
+      <c r="N7" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="68">
+        <v>42802</v>
+      </c>
+      <c r="R7" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>100</v>
+      </c>
       <c r="T7" s="73"/>
       <c r="U7" s="60"/>
       <c r="V7" s="66"/>
@@ -1986,7 +2006,7 @@
       <c r="P8" s="63"/>
       <c r="Q8" s="68"/>
       <c r="R8" s="69"/>
-      <c r="S8" s="77"/>
+      <c r="S8" s="76"/>
       <c r="T8" s="73"/>
       <c r="U8" s="60"/>
       <c r="V8" s="66"/>
@@ -2012,7 +2032,7 @@
       <c r="P9" s="63"/>
       <c r="Q9" s="68"/>
       <c r="R9" s="69"/>
-      <c r="S9" s="78"/>
+      <c r="S9" s="77"/>
       <c r="T9" s="73"/>
       <c r="U9" s="60"/>
       <c r="V9" s="66"/>
@@ -2038,8 +2058,8 @@
       <c r="P10" s="63"/>
       <c r="Q10" s="68"/>
       <c r="R10" s="69"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="79"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="78"/>
       <c r="U10" s="60"/>
       <c r="V10" s="60"/>
       <c r="W10" s="71"/>
@@ -2064,7 +2084,7 @@
       <c r="P11" s="63"/>
       <c r="Q11" s="68"/>
       <c r="R11" s="69"/>
-      <c r="S11" s="78"/>
+      <c r="S11" s="77"/>
       <c r="T11" s="73"/>
       <c r="U11" s="60"/>
       <c r="V11" s="60"/>
@@ -2090,11 +2110,11 @@
       <c r="P12" s="64"/>
       <c r="Q12" s="54"/>
       <c r="R12" s="64"/>
-      <c r="S12" s="80"/>
+      <c r="S12" s="79"/>
       <c r="T12" s="60"/>
       <c r="U12" s="60"/>
       <c r="V12" s="60"/>
-      <c r="W12" s="81"/>
+      <c r="W12" s="80"/>
       <c r="X12" s="72"/>
     </row>
     <row r="13" spans="1:24" ht="16.5">
@@ -2116,7 +2136,7 @@
       <c r="P13" s="63"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="63"/>
-      <c r="S13" s="80"/>
+      <c r="S13" s="79"/>
       <c r="T13" s="60"/>
       <c r="U13" s="60"/>
       <c r="V13" s="60"/>
@@ -2266,11 +2286,11 @@
       <c r="P19" s="63"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="63"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="83"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="82"/>
     </row>
     <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="51"/>
@@ -2291,11 +2311,11 @@
       <c r="P20" s="63"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="63"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="82"/>
     </row>
     <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="51"/>
@@ -2316,11 +2336,11 @@
       <c r="P21" s="63"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="63"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="82"/>
     </row>
     <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="51"/>
@@ -2341,11 +2361,11 @@
       <c r="P22" s="63"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="63"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="82"/>
     </row>
     <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="51"/>
@@ -2366,11 +2386,11 @@
       <c r="P23" s="63"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="63"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="82"/>
     </row>
     <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="51"/>
@@ -2491,11 +2511,11 @@
       <c r="P28" s="63"/>
       <c r="Q28" s="54"/>
       <c r="R28" s="63"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="82"/>
     </row>
     <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="51"/>
@@ -2520,7 +2540,7 @@
       <c r="T29" s="60"/>
       <c r="U29" s="60"/>
       <c r="V29" s="60"/>
-      <c r="W29" s="86"/>
+      <c r="W29" s="85"/>
     </row>
     <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="51"/>
@@ -5783,7 +5803,7 @@
       <c r="W165" s="61"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
@@ -5800,7 +5820,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5815,6 +5835,7 @@
     <hyperlink ref="S3" r:id="rId2" tooltip="View this issue in JIRA"/>
     <hyperlink ref="S5" r:id="rId3" tooltip="View this issue in JIRA"/>
     <hyperlink ref="S6" r:id="rId4" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S7" r:id="rId5" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-420"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5966,7 +5987,7 @@
       <c r="R4" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5993,19 +6014,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6043,8 +6064,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6056,8 +6077,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6069,8 +6090,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6082,8 +6103,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6095,8 +6116,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6108,8 +6129,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6121,8 +6142,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6134,8 +6155,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6167,7 +6188,7 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B10"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -6196,36 +6217,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6467,7 +6488,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -6510,36 +6531,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6781,7 +6802,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -6824,36 +6845,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7095,7 +7116,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -7140,36 +7161,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7411,7 +7432,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
@@ -7656,7 +7677,7 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
